--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value653.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value653.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.699241517971849</v>
+        <v>1.226637601852417</v>
       </c>
       <c r="B1">
-        <v>2.393169777616005</v>
+        <v>2.365147590637207</v>
       </c>
       <c r="C1">
-        <v>2.641396212517409</v>
+        <v>3.304531335830688</v>
       </c>
       <c r="D1">
-        <v>3.11310938844424</v>
+        <v>3.461189031600952</v>
       </c>
       <c r="E1">
-        <v>1.904990980647595</v>
+        <v>1.117375135421753</v>
       </c>
     </row>
   </sheetData>
